--- a/P0038/09_FICHAS/N3-FD-General.xlsx
+++ b/P0038/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0038/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="6_{B7AC785C-D503-4943-B352-BCD019E4F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1BC1F8C-3A70-49E9-BB8E-458A83BB0DEA}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="6_{B7AC785C-D503-4943-B352-BCD019E4F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{897142CA-670D-4DFE-962A-55893858E6E4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1207,10 +1207,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P62"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
@@ -1227,7 +1227,7 @@
     <col min="16" max="16" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="18" customFormat="1">
+    <row r="2" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="18" customFormat="1">
+    <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="18" customFormat="1">
+    <row r="4" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="18" customFormat="1">
+    <row r="5" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="4" customFormat="1">
+    <row r="17" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="3" customFormat="1">
+    <row r="22" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" s="3" customFormat="1">
+    <row r="24" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="3" customFormat="1">
+    <row r="26" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>16</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>16</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>16</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>16</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>16</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>16</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>16</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>16</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>16</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>16</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>16</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>16</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>16</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>16</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>16</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>16</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>16</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>16</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>16</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>16</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>16</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
@@ -4332,12 +4332,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D60:D1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
